--- a/testdata/mutations.xlsx
+++ b/testdata/mutations.xlsx
@@ -2,29 +2,40 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="14420" yWindow="540" windowWidth="14340" windowHeight="16320" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="mutations" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="primers" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DBhits" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -38,12 +49,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +82,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -426,13 +456,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI37"/>
+  <dimension ref="A1:BI38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.33203125" customWidth="1" min="3" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -9690,6 +9723,255 @@
         </is>
       </c>
       <c r="BI37" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="16" customHeight="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Patient9</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>chr15</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>41056700</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>41056701</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>exonic</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>INO80</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>nonsynonymous SNV</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>IL9R:NM_002186:exon9:c.A1319G:p.N440S</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Xq28</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Germline</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>16</v>
+      </c>
+      <c r="R38" t="n">
+        <v>34</v>
+      </c>
+      <c r="S38" t="n">
+        <v>26</v>
+      </c>
+      <c r="T38" t="n">
+        <v>36</v>
+      </c>
+      <c r="U38" t="n">
+        <v>23</v>
+      </c>
+      <c r="V38" t="n">
+        <v>15</v>
+      </c>
+      <c r="W38" t="n">
+        <v>12</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0019492</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>58</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.5862068965517241</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>886</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>155</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.1749435665914221</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>COSM1645956,COSM1138112</t>
+        </is>
+      </c>
+      <c r="AK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>kidney</t>
+        </is>
+      </c>
+      <c r="AM38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>96808174</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>2x(clear_cell_renal_cell_carcinoma@kidney)+12x(squamous_cell_carcinoma@head_neck)</t>
+        </is>
+      </c>
+      <c r="AP38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AW38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="AZ38" t="inlineStr">
+        <is>
+          <t>rs150178903</t>
+        </is>
+      </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>0.010</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BH38" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="BI38" t="inlineStr">
         <is>
           <t>Patient1</t>
         </is>
@@ -9706,7 +9988,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9715,2709 +9997,2714 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>sample</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Chr</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Start</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>End</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Ref</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Alt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>fwdPrimer</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>revPrimer</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>AmpliconRange</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>AmpliconSize</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>InsertRange</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>InsertSize</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="3" t="inlineStr">
         <is>
           <t>InsertSeq</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>offsetL</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>offsetR</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>DBhits</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13198782</v>
       </c>
       <c r="D2" t="n">
         <v>13198782</v>
       </c>
-      <c r="E2" t="n">
-        <v>13198782</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CTCAGGCATTCATCCTGGGG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>CTCAGGCATTCATCCTGGGG</t>
+          <t>GCGGAAACTTCAAGTGCTGG</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>GCGGAAACTTCAAGTGCTGG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.1|rev=60.0)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>(fwd=60.1|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>chr1:13198700-13198903</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="L2" t="n">
         <v>204</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>chr1:13198720-13198883</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="N2" t="n">
         <v>163</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>TATTTCCTTGAGGCAGATGTCTATGAACACCTTTAAGGGCTGGTGCTCTCCCATCCTTGGAC(G&gt;A)GTCCTCTGCTGTCTGCCTCTTACTCATGGTCTCTGGGAAGCAGGACAGGGCCCAGGCTCCAGGCCATCTGGCCCAGAAATTCTCGTCAACATCCCGCAAAT</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>62</v>
+      </c>
       <c r="Q2" t="n">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="R2" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>62209973</v>
+      </c>
       <c r="D3" t="n">
-        <v>62209973</v>
-      </c>
-      <c r="E3" t="n">
         <v>62210002</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CCTCAGGGCTGGAGGAGGAGGAGGAAGAGC</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CCTCAGGGCTGGAGGAGGAGGAGGAAGAGC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AGTGATGGCTTGAGCTTCCT</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AGTGATGGCTTGAGCTTCCT</t>
+          <t>CCAACCCTGAAGCCTCTTCT</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>CCAACCCTGAAGCCTCTTCT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.0|rev=59.3)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>(fwd=59.0|rev=59.3)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>chr1:62209828-62210047</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="L3" t="n">
         <v>220</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>chr1:62209848-62210027</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="N3" t="n">
         <v>179</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>ATTTCTTAAAGAAGTAAAAGTTGCTAAGCCAGAGGAGATGAAAAACTTAGAGACTCAAGAGGAAGAGTTTTCCGAGCTAGAGGAGCTGGATGAAGAGGCCTCAGGGATGGAGGATGATGAAGATA&gt;∆CCTCAGGGCTGGAGGAGGAGGAGGAAGAGC&lt;CCTCAGGGCTGGAGGAGGAAGAAGA</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v>125</v>
+      </c>
       <c r="Q3" t="n">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="R3" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103025905</v>
       </c>
       <c r="D4" t="n">
         <v>103025905</v>
       </c>
-      <c r="E4" t="n">
-        <v>103025905</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>TGGCTTTTGCTGATGCTTGA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TGGCTTTTGCTGATGCTTGA</t>
+          <t>AGCCTTCCTTTCATCTGTGCT</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AGCCTTCCTTTCATCTGTGCT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=58.6|rev=59.6)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>(fwd=58.6|rev=59.6)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>chr1:103025814-103026032</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="L4" t="n">
         <v>219</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>chr1:103025834-103026011</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="N4" t="n">
         <v>177</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>TAACTTTTCTTCTTCTTGGATGAAAATTTTTCAGATTTGGGGGGTGTAAACTTTTTGGATTTTTCCTTTGA(T&gt;G)TTAGTAGCCACTGTCCTCATCTTCTTTTTGAAATTGGATTTCTTTTTCTGTAAAATGTGGTGAAAGATGGAATGGAAAACATAAATAAACGAGGAGGGAAATATAG</t>
         </is>
       </c>
+      <c r="P4" t="n">
+        <v>71</v>
+      </c>
       <c r="Q4" t="n">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="R4" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C5" t="n">
+        <v>108229099</v>
       </c>
       <c r="D5" t="n">
         <v>108229099</v>
       </c>
-      <c r="E5" t="n">
-        <v>108229099</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>TTCCCACAGTGGAACCCTTG</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>TTCCCACAGTGGAACCCTTG</t>
+          <t>AAGCCCCTTCTCCTTTCAGC</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AAGCCCCTTCTCCTTTCAGC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=59.9)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=59.9)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
           <t>chr1:108229003-108229175</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="L5" t="n">
         <v>173</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>chr1:108229023-108229155</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="N5" t="n">
         <v>132</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>ATCCAGCTGTAGTCGCAGACAACTGGGCACCAGGGTGCTTGGTTCCAGCTGTGCCTGTGAAACTTGCACCTCTGAC(T&gt;C)GGTGGTGGCTCAAGTCTCCACTCCAAGTCCCTTGGGGACAGGCCGCCTCGGTGGGG</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>76</v>
+      </c>
       <c r="Q5" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="R5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>152156590</v>
+      </c>
       <c r="D6" t="n">
-        <v>152156590</v>
-      </c>
-      <c r="E6" t="n">
         <v>152156625</v>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TGGTGGGAATCTCTGTCTTGTTTCTCAGACTGACCA</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TGGTGGGAATCTCTGTCTTGTTTCTCAGACTGACCA</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GCCTGGCCACTGGTAGATTT</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>GCCTGGCCACTGGTAGATTT</t>
+          <t>TGGTCAGCCTGAGAGACAAG</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>TGGTCAGCCTGAGAGACAAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.0|rev=59.0)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>(fwd=60.0|rev=59.0)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
           <t>chr1:152156443-152156661</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="L6" t="n">
         <v>219</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>chr1:152156463-152156641</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="N6" t="n">
         <v>178</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>GTGACTCACTTTTTTACCAGAGCTGGAGTCTTGACTTTGTCTCTCTGACTGATCAAAGCTGAAATCCTTGTCTTGTCTCTCAGACTGATTGTGGTGAGAATCTCTGTCTTGTCTCTCAGGCTGACTG&gt;∆TGGTGGGAATCTCTGTCTTGTTTCTCAGACTGACCA&lt;TGGTGGGAATCTCTGT</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>127</v>
+      </c>
       <c r="Q6" t="n">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="R6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>chr1</t>
         </is>
+      </c>
+      <c r="C7" t="n">
+        <v>161526344</v>
       </c>
       <c r="D7" t="n">
         <v>161526344</v>
       </c>
-      <c r="E7" t="n">
-        <v>161526344</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>GAGTGGCTGCCAAAAACTCG</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>GAGTGGCTGCCAAAAACTCG</t>
+          <t>ACAGATTTGCTCCAGCTCCC</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>ACAGATTTGCTCCAGCTCCC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.0|rev=60.0)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>(fwd=60.0|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
           <t>chr1:161526268-161526473</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="L7" t="n">
         <v>206</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>chr1:161526288-161526453</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="N7" t="n">
         <v>165</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>CTGGAGGCCCATGTCTTCCATGTGAAAGGTTCTTTGCAAGAGGAAAGCCTTAGGGA(C&gt;G)AAGATTCCCGAAGAGGACAGGCGCAAAATGCAAGACAAGTGTCGGGAAGTCCTTGCCTGGCTGGAGCACAACCAGCTGGCAGAGAAGGAGGAGTATGAGCATCAGAAGA</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>56</v>
+      </c>
       <c r="Q7" t="n">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="R7" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C8" t="n">
+        <v>800590</v>
       </c>
       <c r="D8" t="n">
         <v>800590</v>
       </c>
-      <c r="E8" t="n">
-        <v>800590</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>CATCCACCAGCATCCCTACC</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CATCCACCAGCATCCCTACC</t>
+          <t>GCAGAGCTTTGGGTCCTGAG</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>GCAGAGCTTTGGGTCCTGAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=60.6)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=60.6)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>chr11:800524-800706</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
         <v>183</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>chr11:800544-800686</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="N8" t="n">
         <v>142</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>AGCATCCACGTCGATGCCGCGCTCGAAGGCCGCAAAGAACTCTTCG(C&gt;T)CCTCGAACATCTCCACCGTGTCAGAGGGCTCGGGGCCCCGGTACCGCTCCAGCAGCCGCCGAAGGGTGGCGTCCACCTGCGGGGAAGCCCGTGCAG</t>
         </is>
       </c>
+      <c r="P8" t="n">
+        <v>46</v>
+      </c>
       <c r="Q8" t="n">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="R8" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C9" t="n">
+        <v>72005286</v>
       </c>
       <c r="D9" t="n">
         <v>72005286</v>
       </c>
-      <c r="E9" t="n">
-        <v>72005286</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>CAGGTGGGATTCCAAGGGAG</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CAGGTGGGATTCCAAGGGAG</t>
+          <t>GCTTCTACATGGGCACTTGC</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>GCTTCTACATGGGCACTTGC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.7|rev=59.5)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>(fwd=59.7|rev=59.5)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
           <t>chr11:72005172-72005360</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
         <v>189</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>chr11:72005192-72005340</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="N9" t="n">
         <v>148</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>GGCAGGGATGGGAGGCCCTGCACAGTGACCCCAGGCCTCACCCTGGACTCCAGGGGATAGCAGGTCTTCAGATGTGGGGGGCACACTCGATTGC(G&gt;A)CTGCTGCAGCTCTGCAATGCGGTTCCAGTCATCCAGCTGCTCAGGCTCATCCTG</t>
         </is>
       </c>
+      <c r="P9" t="n">
+        <v>94</v>
+      </c>
       <c r="Q9" t="n">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="R9" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>chr11</t>
         </is>
+      </c>
+      <c r="C10" t="n">
+        <v>73309330</v>
       </c>
       <c r="D10" t="n">
         <v>73309330</v>
       </c>
-      <c r="E10" t="n">
-        <v>73309330</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>CTC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CTC</t>
+          <t>GCGGATGGTTTACATTCTTGGC</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>GCGGATGGTTTACATTCTTGGC</t>
+          <t>CCTCCTCTTCCTCCTCGCT</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>CCTCCTCTTCCTCCTCGCT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.4|rev=60.0)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>(fwd=60.4|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
           <t>chr11:73309269-73309407</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
         <v>139</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>chr11:73309291-73309388</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="N10" t="n">
         <v>97</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>ATATCTTCTCCCAACCGCAGGCCGGGGCCCGGGCCTCCT&lt;&lt;+CTC&gt;&gt;GCTCCTCCTCCTCCATCGCCGCCTCCTATCCTGTCAGCCGCAGTCGTGCTGCCAGCTCC</t>
         </is>
       </c>
+      <c r="P10" t="n">
+        <v>39</v>
+      </c>
       <c r="Q10" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R10" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>chr12</t>
         </is>
+      </c>
+      <c r="C11" t="n">
+        <v>27420483</v>
       </c>
       <c r="D11" t="n">
         <v>27420483</v>
       </c>
-      <c r="E11" t="n">
-        <v>27420483</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>GGTGATGGTGCACAGTTGGA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>GGTGATGGTGCACAGTTGGA</t>
+          <t>AATCAAAGGCTAGAGGGTCC</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AATCAAAGGCTAGAGGGTCC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.5|rev=56.5)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>(fwd=60.5|rev=56.5)</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
           <t>chr12:27420395-27420541</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
         <v>147</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>chr12:27420415-27420521</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="N11" t="n">
         <v>106</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>TTTCGATGCCCTATGTGACAATGATGACACAGCCATGGCTGCATTTATGAATTACTTAGAAGCAGAGG(G&gt;C)GGGCCTGGGAGACCCTGGGGACTTCAGTGACATCCAGT</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>68</v>
+      </c>
       <c r="Q11" t="n">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="R11" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>chr14</t>
         </is>
+      </c>
+      <c r="C12" t="n">
+        <v>55188974</v>
       </c>
       <c r="D12" t="n">
         <v>55188974</v>
       </c>
-      <c r="E12" t="n">
-        <v>55188974</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>ACTCACACAGGCATTAAACCA</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>ACTCACACAGGCATTAAACCA</t>
+          <t>ACGAACGAAATAGACACTTTGGT</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ACGAACGAAATAGACACTTTGGT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=57.7|rev=58.6)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>(fwd=57.7|rev=58.6)</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
           <t>chr14:55188870-55189064</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
         <v>195</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>chr14:55188891-55189041</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="N12" t="n">
         <v>150</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>ACTATTATTCACTCTTCAAAGTACTTAAAATTACAACAGACCTTTACTTACTTGGCTTAACATTGGTCTTTTCTGGAACAAGC(C&gt;T)CTTGAGATGTCTCATCTAATTCAACAAGAATTCTACCTTCCAAGGTTGGAATGTTTACATCTTTCAA</t>
         </is>
       </c>
+      <c r="P12" t="n">
+        <v>83</v>
+      </c>
       <c r="Q12" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="R12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>chr14</t>
         </is>
+      </c>
+      <c r="C13" t="n">
+        <v>104949009</v>
       </c>
       <c r="D13" t="n">
         <v>104949009</v>
       </c>
-      <c r="E13" t="n">
-        <v>104949009</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>GCATGGAGGGGAGACTCATG</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>GCATGGAGGGGAGACTCATG</t>
+          <t>AGAGCCAAGCTGGATAGTGC</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AGAGCCAAGCTGGATAGTGC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=59.8)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=59.8)</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
           <t>chr14:104948874-104949072</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="L13" t="n">
         <v>199</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>chr14:104948894-104949052</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="N13" t="n">
         <v>158</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>TCGGCCTCCACCTTGGGTGGAGACACATCCACCGAGGCCTCGATGGACTTGCCTGGGGCAGACACCCCAAACGACGGCATCTTGAACTTGGGCATTTTGAACTTGCTGTCTTTGG(T&gt;C)AGTCAGGTCCTTGTTGGCCAGGGTCAGGTCCCCCTGCAGATGC</t>
         </is>
       </c>
+      <c r="P13" t="n">
+        <v>115</v>
+      </c>
       <c r="Q13" t="n">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="R13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C14" t="n">
+        <v>66963538</v>
       </c>
       <c r="D14" t="n">
         <v>66963538</v>
       </c>
-      <c r="E14" t="n">
-        <v>66963538</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>CTGAACAGCTGGACCTCAGG</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CTGAACAGCTGGACCTCAGG</t>
+          <t>GAGCTGGATCAGGTGGACAG</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>GAGCTGGATCAGGTGGACAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.0|rev=59.8)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>(fwd=60.0|rev=59.8)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
           <t>chr16:66963454-66963668</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
         <v>215</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>chr16:66963474-66963648</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="N14" t="n">
         <v>174</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>CCCACCCTTGGCCACAGGTGCCTACAAGACGTGGAGAGCATGAACAGCAGCAGATTTGTCCTCA(A&gt;T)CGGAAAACAGCAGATCTTCTCCGTTTCAGAGGACTGCCTGGTCCTCAACGTCTATAGCCCAGCTGAGGTCCCCGCAGGGTCCGGTAGGCCGGTAGGCACCCCAGAGGGCC</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>64</v>
+      </c>
       <c r="Q14" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="R14" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>chr16</t>
         </is>
+      </c>
+      <c r="C15" t="n">
+        <v>72957797</v>
       </c>
       <c r="D15" t="n">
         <v>72957797</v>
       </c>
-      <c r="E15" t="n">
-        <v>72957797</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GCC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>GCC</t>
+          <t>TGCATGTGCTTCTCACTGGT</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>TGCATGTGCTTCTCACTGGT</t>
+          <t>GAGCAGGTCTTCAGCCACAC</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>GAGCAGGTCTTCAGCCACAC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=60.9)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=60.9)</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
           <t>chr16:72957657-72957859</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
         <v>203</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>chr16:72957677-72957839</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="N15" t="n">
         <v>162</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>CATGTGAATGCGGAGGTTCCTGGCCACGTTGGTCTCATAATCACACACCTCGCACCGCCAGGTGGGTTTGGTTTTTGGTTTGGTCGGCGAGGGGGCCCCGCAGGAGCTACTGATATTGGC&lt;&lt;+GCC&gt;&gt;TGCCGCCGCCGCCGCAGCCACCGCCGCCGCCGCCGCCCCGGCA</t>
         </is>
       </c>
+      <c r="P15" t="n">
+        <v>120</v>
+      </c>
       <c r="Q15" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="R15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C16" t="n">
+        <v>7675122</v>
       </c>
       <c r="D16" t="n">
         <v>7675122</v>
       </c>
-      <c r="E16" t="n">
-        <v>7675122</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>GCTGCTCACCATCGCTATCT</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>GCTGCTCACCATCGCTATCT</t>
+          <t>CCCTGCCCTCAACAAGATGT</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>CCCTGCCCTCAACAAGATGT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=59.9)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=59.9)</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
           <t>chr17:7675044-7675231</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="L16" t="n">
         <v>188</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>chr17:7675064-7675211</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="N16" t="n">
         <v>147</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>GAGCAGCGCTCATGGTGGGGGCAGCGCCTCACAACCTCCGTCATGTGCTGTGACTGCT(T&gt;C)GTAGATGGCCATGGCGCGGACGCGGGTGCCGGGCGGGGGTGTGGAATCAACCCACAGCTGCACAGGGCAGGTCTTGGCCAGTTGGCAAA</t>
         </is>
       </c>
+      <c r="P16" t="n">
+        <v>58</v>
+      </c>
       <c r="Q16" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="R16" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C17" t="n">
+        <v>31226459</v>
       </c>
       <c r="D17" t="n">
         <v>31226459</v>
       </c>
-      <c r="E17" t="n">
-        <v>31226459</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CACACACACACACACACACA</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>CACACACACACACACACACA</t>
+          <t>TGGCAACCAGAACAGCTTCA</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>TGGCAACCAGAACAGCTTCA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.1|rev=60.1)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>(fwd=59.1|rev=60.1)</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
           <t>chr17:31226340-31226552</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
         <v>213</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>chr17:31226360-31226532</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="N17" t="n">
         <v>172</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>GTTTATTGCATTGTTAGATTTTATACATAAAATTACCCAAGTTGCAAATATATGTCTTCCACCCTTGACTCTCAGGATAGTGCAGCAGGATGCAGCGGA&lt;&lt;+C&gt;&gt;ACCCCCCCGATTTGCCGACAAGCCCAGACCAAACTAGAAGTGGCCCTGTACATGTTTCTGTGGAACCCTGACAC</t>
         </is>
       </c>
+      <c r="P17" t="n">
+        <v>99</v>
+      </c>
       <c r="Q17" t="n">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="R17" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>35441918</v>
       </c>
       <c r="D18" t="n">
         <v>35441918</v>
       </c>
-      <c r="E18" t="n">
-        <v>35441918</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>CAAGGCTATAGGACGCAGGG</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CAAGGCTATAGGACGCAGGG</t>
+          <t>CACCATTCTCAGGGAGCAGG</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CACCATTCTCAGGGAGCAGG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=60.1)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=60.1)</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
           <t>chr17:35441861-35442066</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="L18" t="n">
         <v>206</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>chr17:35441881-35442046</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="N18" t="n">
         <v>165</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>TAATCCATCGGAGACACTGCAGCCTCCAAGGCCTCTG(C&gt;T)GCTGCTCTCAGGACTCAGGCAGAGGACCTTGGCCCTGACACACACCTTCCCGGTGTAGCCCCCCATGTTCACTAGCTTCTGCTTCAAAGTAAAGGCGGTGCGAGTGCAGTAGTCCTGGCCCTCTGCAT</t>
         </is>
       </c>
+      <c r="P18" t="n">
+        <v>37</v>
+      </c>
       <c r="Q18" t="n">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="R18" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C19" t="n">
+        <v>41524950</v>
       </c>
       <c r="D19" t="n">
         <v>41524950</v>
       </c>
-      <c r="E19" t="n">
-        <v>41524950</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>GATCTGCATCTCCAGGTCGG</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>GATCTGCATCTCCAGGTCGG</t>
+          <t>CCCCCCTATGGACTCCTGAA</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>CCCCCCTATGGACTCCTGAA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=60.0)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
           <t>chr17:41524891-41525091</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="L19" t="n">
         <v>201</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>chr17:41524911-41525071</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="N19" t="n">
         <v>160</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>TCCTGGCCAGGGTCAGCTCATCCAGCACCCTGCGCAGGC(C&gt;T)GTTGATGTCGGCCTCCACGCTCATGCGCAGAGCCTGTTCCGTCTCAAACCTTTCAAAGGAAATAGTTGCAGCCAGGCAGAGCTTCCTCAGCATCTCTGAAGACTTCCCTACCTCCCCAGAG</t>
         </is>
       </c>
+      <c r="P19" t="n">
+        <v>39</v>
+      </c>
       <c r="Q19" t="n">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="R19" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C20" t="n">
+        <v>63689559</v>
       </c>
       <c r="D20" t="n">
         <v>63689559</v>
       </c>
-      <c r="E20" t="n">
-        <v>63689559</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>ATATTCCGCCTTGTAGCCCG</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ATATTCCGCCTTGTAGCCCG</t>
+          <t>AGGTATTGCACAGCCAGACC</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>AGGTATTGCACAGCCAGACC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=60.0)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
           <t>chr17:63689442-63689658</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="L20" t="n">
         <v>217</v>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>chr17:63689462-63689638</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="N20" t="n">
         <v>176</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>GGGTGTCTCAGACCTGGTTTGTACGTTCCGCCTCGTAGCCTGGGGTGTGACTTGCTCTCCTCTGGCCCTTGCACCCTTTCAGGCAGAAGAACATTTC(C&gt;T)CCGAATACGGCGTCATCAAGGCAACTTGTTCACCCTGGTGCCCTCCAGCCGCTCCCTGAGCACAAATGGCGAGAACATG</t>
         </is>
       </c>
+      <c r="P20" t="n">
+        <v>97</v>
+      </c>
       <c r="Q20" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="R20" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>chr17</t>
         </is>
+      </c>
+      <c r="C21" t="n">
+        <v>80190777</v>
       </c>
       <c r="D21" t="n">
         <v>80190777</v>
       </c>
-      <c r="E21" t="n">
-        <v>80190777</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>AGAACTGTCTCCCTCCCTCC</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AGAACTGTCTCCCTCCCTCC</t>
+          <t>CGCATTCACCTTCTCCCTGT</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>CGCATTCACCTTCTCCCTGT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=60.0)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
           <t>chr17:80190671-80190857</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
         <v>187</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>chr17:80190691-80190837</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="N21" t="n">
         <v>146</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>ACCCCTGGGTTCCCCGACCCCCTTCTAAGGCCAGACCCTCAGAGCTGCTGAGCTTCACGGTCCATGTGTCCCACTCTGTCCAGTAC(T&gt;A)GGGAAGAGAAGGAACAGACCCTGCTGCAGTTCCAGAAGAGTAAGATGGCCTGCCAACTCT</t>
         </is>
       </c>
+      <c r="P21" t="n">
+        <v>86</v>
+      </c>
       <c r="Q21" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="R21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>chr19</t>
         </is>
+      </c>
+      <c r="C22" t="n">
+        <v>43914156</v>
       </c>
       <c r="D22" t="n">
         <v>43914156</v>
       </c>
-      <c r="E22" t="n">
-        <v>43914156</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>CCTTGCCACACTCCTCACAT</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>CCTTGCCACACTCCTCACAT</t>
+          <t>AAGCCACACTGGAGAGAAGC</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>AAGCCACACTGGAGAGAAGC</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=59.9)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=59.9)</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
           <t>chr19:43914082-43914296</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
         <v>215</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>chr19:43914102-43914276</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="N22" t="n">
         <v>174</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>TTATAGGGTTTTTCCCCTGTATGGACTCTAAAATGAATGTTAAAATCTGAGCTA(C&gt;T)GACTGAAGCCCTTACCACATGCATCACACTGATACGGTTTCTCTCCAGTATGGCCTCTTTGATGGTCCAGCAGATTTGAGGCCCGGCAGAAGCCTTTCCCACACTCCTCACATTTGTATG</t>
         </is>
       </c>
+      <c r="P22" t="n">
+        <v>54</v>
+      </c>
       <c r="Q22" t="n">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="R22" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>chr2</t>
         </is>
+      </c>
+      <c r="C23" t="n">
+        <v>106433258</v>
       </c>
       <c r="D23" t="n">
         <v>106433258</v>
       </c>
-      <c r="E23" t="n">
-        <v>106433258</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>CCGCATTTCGCAAAGAACCA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>CCGCATTTCGCAAAGAACCA</t>
+          <t>GGAATTTTTTGCAAATGAAAGCCCT</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>GGAATTTTTTGCAAATGAAAGCCCT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.0|rev=59.9)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>(fwd=60.0|rev=59.9)</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
           <t>chr2:106433174-106433333</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
         <v>160</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>chr2:106433194-106433308</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="N23" t="n">
         <v>114</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>TTTTTATAGAGAGGACCTCCTTCACTATAGTTTTCGAGTTCCTGCATGACTGACTTAAGCATCT(C&gt;G)TTTTACAGACTCCAGGGGCACAGGCAACTAAAAATAAAAGACATTAATTA</t>
         </is>
       </c>
+      <c r="P23" t="n">
+        <v>64</v>
+      </c>
       <c r="Q23" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C24" t="n">
+        <v>28253012</v>
       </c>
       <c r="D24" t="n">
         <v>28253012</v>
       </c>
-      <c r="E24" t="n">
-        <v>28253012</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AGGTTTCACAGACAGGCAGG</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AGGTTTCACAGACAGGCAGG</t>
+          <t>TCCTCTTGCCAGTTTGTTCA</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TCCTCTTGCCAGTTTGTTCA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=57.2)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=57.2)</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
           <t>chr3:28252901-28253108</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
         <v>208</v>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>chr3:28252921-28253088</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="N24" t="n">
         <v>167</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>CTGGAGCATTGCGGGGAAGAAAACATCTCTCCTACTCTTGATTTCCCTTTTTGTTTTTGTTTTGTCAGTTCTAGTATGGCTTGAAGGAAAG&gt;∆A&lt;AGGTGAATTTTCCTATTTTAAGATGTCTCTTCGTCTACCCTTCCTCATTTTACTCTGTCGTTATAGCAAGAAGGTA</t>
         </is>
       </c>
+      <c r="P24" t="n">
+        <v>91</v>
+      </c>
       <c r="Q24" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="R24" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C25" t="n">
+        <v>108576288</v>
       </c>
       <c r="D25" t="n">
         <v>108576288</v>
       </c>
-      <c r="E25" t="n">
-        <v>108576288</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>ACTGGCTACATAATTGTGTCCCT</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>ACTGGCTACATAATTGTGTCCCT</t>
+          <t>CCTAGATATGAGCACTTTTCTTCA</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>CCTAGATATGAGCACTTTTCTTCA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.4|rev=56.2)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>(fwd=59.4|rev=56.2)</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>chr3:108576132-108576351</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
         <v>220</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>chr3:108576155-108576327</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="N25" t="n">
         <v>172</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>ATTATAAAAATACAGAAATCTGTGCATTTGGATTTTTCTGTATTTTGCAGTTTTTTAAAAGTTTCGGCATTTTGCAGTTTTTAAAAGTTTAAATGAAAAGTCATGTTTTTACATACCTTTGAAGAGGAATCAG(G&gt;T)ATCCTTTCCATTAAGAAGACCTAATACTTGGTGAAGACA</t>
         </is>
       </c>
+      <c r="P25" t="n">
+        <v>133</v>
+      </c>
       <c r="Q25" t="n">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="R25" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>chr3</t>
         </is>
+      </c>
+      <c r="C26" t="n">
+        <v>193457422</v>
       </c>
       <c r="D26" t="n">
         <v>193457422</v>
       </c>
-      <c r="E26" t="n">
-        <v>193457422</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TTTGGGTGTTGTGGGGTGAA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>TTTGGGTGTTGTGGGGTGAA</t>
+          <t>CAAGGGGAGGGTTCAAGCAT</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>CAAGGGGAGGGTTCAAGCAT</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=59.9)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=59.9)</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
           <t>chr3:193457342-193457545</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
         <v>204</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>chr3:193457362-193457525</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="N26" t="n">
         <v>163</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>GAGCAAGCAGGGCTTACCTGGCTGGCTGTTCTGCAGGGCTTAACTACCATGGCATGTGCC(G&gt;A)GCACTCCCTTGATGTGGAAATCGTCCCCAGAAAAAGCCATTTCCTATTTCACAAATAGGATATTTCATTGCAGAGATTTATTTATTGTTTGCCCACTGATGCT</t>
         </is>
       </c>
+      <c r="P26" t="n">
+        <v>60</v>
+      </c>
       <c r="Q26" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="R26" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>chr4</t>
         </is>
+      </c>
+      <c r="C27" t="n">
+        <v>8867937</v>
       </c>
       <c r="D27" t="n">
         <v>8867937</v>
       </c>
-      <c r="E27" t="n">
-        <v>8867937</v>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>GGGCTTTCGTGGTAGAGCAC</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>GGGCTTTCGTGGTAGAGCAC</t>
+          <t>GACCTGAAGCGCTACCTGAG</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>GACCTGAAGCGCTACCTGAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=61.0|rev=60.1)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>(fwd=61.0|rev=60.1)</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
           <t>chr4:8867871-8868073</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
         <v>203</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>chr4:8867891-8868053</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="N27" t="n">
         <v>162</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>CGGCACGCGGACCAGGCGCTGCGCTCCCGGCGGGGACAGGCTGGCC(G&gt;T)CCTCCAGCTCGGCTGCCAGCTGCCGCTTCCACTTGTTGCGGCGGTTCTGGAACCAGATCTTAACCTGCGTCTCGGTGAGCTGCAGGGAGGCGGCCAGGCCGGCGCGCTCGGCGCTG</t>
         </is>
       </c>
+      <c r="P27" t="n">
+        <v>46</v>
+      </c>
       <c r="Q27" t="n">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="R27" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>chr5</t>
         </is>
+      </c>
+      <c r="C28" t="n">
+        <v>55956103</v>
       </c>
       <c r="D28" t="n">
         <v>55956103</v>
       </c>
-      <c r="E28" t="n">
-        <v>55956103</v>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>TTGAAAGTCACAGGCAGGGA</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>TTGAAAGTCACAGGCAGGGA</t>
+          <t>GCCTCCTTTTGAAGCCAATGG</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>GCCTCCTTTTGAAGCCAATGG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.1|rev=60.0)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>(fwd=59.1|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
           <t>chr5:55956026-55956230</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
         <v>205</v>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>chr5:55956046-55956209</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="N28" t="n">
         <v>163</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>TAGTTAAAACAGCTGCATCTGATTTGCCAACAAGATTTCTTACTGTTAGGGTTGCTA(G&gt;C)ATAGCGATCATTTGTGAGATTTACTGTCAGTTTTGTGGCATTAACTGTGTAATTTTGTAAATGTGATTTCCATCTTGTGAGAGTCACTTCATAATCCAAGATTTTT</t>
         </is>
       </c>
+      <c r="P28" t="n">
+        <v>57</v>
+      </c>
       <c r="Q28" t="n">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="R28" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>chr6</t>
         </is>
+      </c>
+      <c r="C29" t="n">
+        <v>123377874</v>
       </c>
       <c r="D29" t="n">
         <v>123377874</v>
       </c>
-      <c r="E29" t="n">
-        <v>123377874</v>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CAGCATTCTATGTCATTCAATTGT</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>CAGCATTCTATGTCATTCAATTGT</t>
+          <t>TGCATGTTTCTTTGTGTTAAAACA</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TGCATGTTTCTTTGTGTTAAAACA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=56.0|rev=56.7)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>(fwd=56.0|rev=56.7)</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
           <t>chr6:123377771-123377990</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
         <v>220</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>chr6:123377795-123377966</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="N29" t="n">
         <v>171</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>AATTCAGTATTCAATTGCAAATCAAATAATATTATGAAATTGTGAGAACAGAGGAATTTAAAAACAGTTACCTGGTTCC(A&gt;C)CATGTTTTTCTTTCTTTTCCTGTTCTGAAACATATTATTATTGTTATTATTATTATCGTTATTATTCTAAAGTTTATGAATCCCAACTTAAT</t>
         </is>
       </c>
+      <c r="P29" t="n">
+        <v>79</v>
+      </c>
       <c r="Q29" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="R29" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>100993760</v>
       </c>
       <c r="D30" t="n">
         <v>100993760</v>
       </c>
-      <c r="E30" t="n">
-        <v>100993760</v>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>TCGGGCCACAGTGAGAAATC</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>TCGGGCCACAGTGAGAAATC</t>
+          <t>GTGATCTGGGGCTGCTGTAG</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>GTGATCTGGGGCTGCTGTAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.0|rev=60.1)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>(fwd=60.0|rev=60.1)</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
           <t>chr7:100993681-100993894</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
         <v>214</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>chr7:100993701-100993874</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="N30" t="n">
         <v>173</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>AACAATATTCCACAGCAGCCCAGATGCAAGTGGAACAACACCCTCATCTGCCCACTCCA(C&gt;A)AACCTCAGGTCGTGGAGAATCTACAACCTCACGCATCAGTCCAGGCTCAACTGAAATAACAACGTTACCTGGCAGTACCACAACACCAGGCCTCAGTGAGGCATCTACCACCTT</t>
         </is>
       </c>
+      <c r="P30" t="n">
+        <v>59</v>
+      </c>
       <c r="Q30" t="n">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="R30" t="n">
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>143756373</v>
       </c>
       <c r="D31" t="n">
         <v>143756373</v>
       </c>
-      <c r="E31" t="n">
-        <v>143756373</v>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>TCCGAGCTGCCAACCAATTA</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>TCCGAGCTGCCAACCAATTA</t>
+          <t>ACAGTGGAGGAAAATTACCGA</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ACAGTGGAGGAAAATTACCGA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.6|rev=56.9)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>(fwd=59.6|rev=56.9)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
           <t>chr7:143756248-143756452</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
         <v>205</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>chr7:143756268-143756431</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="N31" t="n">
         <v>163</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>TCATGTCCTCTTTTCTCGTAGGAAATAACCTGCTTTTGATAAAAATGAACAGTTCTCTCCAATTCTTCTTCAAGATCTTTGGCTAGCTTTCTATAGGTCTCCAGC(T&gt;C)GTTCAGTGGCACGGCTGAGCTTTTCTTCCACTTTAGAAAGCTTCTCTTCTTCCTCTAT</t>
         </is>
       </c>
+      <c r="P31" t="n">
+        <v>105</v>
+      </c>
       <c r="Q31" t="n">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="R31" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>chr7</t>
         </is>
+      </c>
+      <c r="C32" t="n">
+        <v>143756374</v>
       </c>
       <c r="D32" t="n">
         <v>143756374</v>
       </c>
-      <c r="E32" t="n">
-        <v>143756374</v>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>TCCGAGCTGCCAACCAATTA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>TCCGAGCTGCCAACCAATTA</t>
+          <t>ACAGTGGAGGAAAATTACCGA</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ACAGTGGAGGAAAATTACCGA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.6|rev=56.9)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>(fwd=59.6|rev=56.9)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
           <t>chr7:143756248-143756452</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
         <v>205</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>chr7:143756268-143756431</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="N32" t="n">
         <v>163</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>TCATGTCCTCTTTTCTCGTAGGAAATAACCTGCTTTTGATAAAAATGAACAGTTCTCTCCAATTCTTCTTCAAGATCTTTGGCTAGCTTTCTATAGGTCTCCAGCT(G&gt;C)TTCAGTGGCACGGCTGAGCTTTTCTTCCACTTTAGAAAGCTTCTCTTCTTCCTCTAT</t>
         </is>
       </c>
+      <c r="P32" t="n">
+        <v>106</v>
+      </c>
       <c r="Q32" t="n">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="R32" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>chr9</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>33796693</v>
+      </c>
       <c r="D33" t="n">
-        <v>33796693</v>
-      </c>
-      <c r="E33" t="n">
         <v>33796695</v>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GAG</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GAG</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TTCCACTCCAGTTGCTGTCC</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>TTCCACTCCAGTTGCTGTCC</t>
+          <t>ATACCACCCACTGTTCGCTG</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>ATACCACCCACTGTTCGCTG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.8|rev=60.0)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>(fwd=59.8|rev=60.0)</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
           <t>chr9:33796632-33796780</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
         <v>149</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>chr9:33796652-33796760</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="N33" t="n">
         <v>108</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>CCTTTGACGATGATGACAAGATTGTTGGGGGCTACACCTGT&gt;∆GAG&lt;GAGAATTCTCTCCCCTACCAGGTGTCCCTGAATTCTGGCTCCCACTTCTGCGGTGGCTCCCTCAT</t>
         </is>
       </c>
+      <c r="P33" t="n">
+        <v>41</v>
+      </c>
       <c r="Q33" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="R33" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>chr9</t>
         </is>
+      </c>
+      <c r="C34" t="n">
+        <v>113283456</v>
       </c>
       <c r="D34" t="n">
         <v>113283456</v>
       </c>
-      <c r="E34" t="n">
-        <v>113283456</v>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>CTGTTGCTCCTGGTGATGGT</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>CTGTTGCTCCTGGTGATGGT</t>
+          <t>TTCCCAGAGGTGAGCCAAAG</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TTCCCAGAGGTGAGCCAAAG</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=59.9|rev=59.5)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>(fwd=59.9|rev=59.5)</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
           <t>chr9:113283354-113283565</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
         <v>212</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>chr9:113283374-113283545</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="N34" t="n">
         <v>171</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>GTTTCTGTGTCGCAGGGCAATGAAACGCTTGGAAGAGGCCCGACTCCATAAGGAGATTCCTGAGACAACAAGGACCTCCCAG(A&gt;G)TGCAAGAGCTGCACAAGTCTCTCCGGGTAAGATGCTCCCAGCAATTGTCCCACATCTTAAAGGTTCTTCATGTTTATTTGATTTTTCTA</t>
         </is>
       </c>
+      <c r="P34" t="n">
+        <v>82</v>
+      </c>
       <c r="Q34" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="R34" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>chr9</t>
         </is>
+      </c>
+      <c r="C35" t="n">
+        <v>133071561</v>
       </c>
       <c r="D35" t="n">
         <v>133071561</v>
       </c>
-      <c r="E35" t="n">
-        <v>133071561</v>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
           <t>G</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
@@ -12426,159 +12713,398 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C36" t="n">
+        <v>156010159</v>
       </c>
       <c r="D36" t="n">
         <v>156010159</v>
       </c>
-      <c r="E36" t="n">
-        <v>156010159</v>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>GGTGTACGGAGTGGAGGGTA</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>GGTGTACGGAGTGGAGGGTA</t>
+          <t>GCTCTGTGTGTTTCCTGGGA</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>GCTCTGTGTGTTTCCTGGGA</t>
+          <t>not established</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>not established</t>
+          <t>(fwd=60.3|rev=59.8)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>(fwd=60.3|rev=59.8)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
           <t>chrX:156010030-156010232</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
         <v>203</v>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="M36" t="inlineStr">
         <is>
           <t>chrX:156010050-156010212</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="N36" t="n">
         <v>162</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>CAGACGCTTGCCTATCTGCCACAGGAGGACTGGGCCCCCACGTCCCTGACTAGGCCGGCTCCCCCAGACTCAGAGGGCAGCAGGAGCAGCAGCAGCAGCAGCAGCAGCA(A&gt;G)CAACAACAACTACTGTGCCTTGGGCTGCTATGGGGGATGGCACCTCTCAGCCC</t>
         </is>
       </c>
+      <c r="P36" t="n">
+        <v>109</v>
+      </c>
       <c r="Q36" t="n">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="R36" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Patient1</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Patient1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>chrX</t>
         </is>
+      </c>
+      <c r="C37" t="n">
+        <v>156010162</v>
       </c>
       <c r="D37" t="n">
         <v>156010162</v>
       </c>
-      <c r="E37" t="n">
-        <v>156010162</v>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>GGTGTACGGAGTGGAGGGTA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>GCTCTGTGTGTTTCCTGGGA</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>not established</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>(fwd=60.3|rev=59.8)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>chrX:156010030-156010232</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>203</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>chrX:156010050-156010212</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>162</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>CAGACGCTTGCCTATCTGCCACAGGAGGACTGGGCCCCCACGTCCCTGACTAGGCCGGCTCCCCCAGACTCAGAGGGCAGCAGGAGCAGCAGCAGCAGCAGCAGCAGCAACA(A&gt;G)CAACAACTACTGTGCCTTGGGCTGCTATGGGGGATGGCACCTCTCAGCCC</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>112</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>50</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Patient9</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>chr15</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>41056700</v>
+      </c>
+      <c r="D38" t="n">
+        <v>41056701</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>GGTGTACGGAGTGGAGGGTA</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>GCTCTGTGTGTTTCCTGGGA</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ACTAGTGCCTACCTCTGCCA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>TGTCAATATGGGGTCTCAGTAGG</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>not established</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>(fwd=60.3|rev=59.8)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>chrX:156010030-156010232</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>203</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>chrX:156010050-156010212</t>
-        </is>
-      </c>
-      <c r="O37" t="n">
-        <v>162</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>CAGACGCTTGCCTATCTGCCACAGGAGGACTGGGCCCCCACGTCCCTGACTAGGCCGGCTCCCCCAGACTCAGAGGGCAGCAGGAGCAGCAGCAGCAGCAGCAGCAGCAACA(A&gt;G)CAACAACTACTGTGCCTTGGGCTGCTATGGGGGATGGCACCTCTCAGCCC</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>112</v>
-      </c>
-      <c r="R37" t="n">
-        <v>50</v>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>(fwd=59.9|rev=59.0)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>chr15:41056610-41056785</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>176</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>chr15:41056630-41056762</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>132</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>TGGTGTTCTGAATTGGGGTCCCGGTTAGCAAAAGCCGATTCCGACACTGGAACTGTAAGAGGATCTTCCA(A&gt;G)GAACACTGTTTGATAAAATAAGTTACAAATTCATGTTAGCAATAAATTGTTCTTTAATTAT</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>61</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Chr</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Start</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>End</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Plate</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Pos</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>fwdPrimer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>revPrimer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>AmpliconRange</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>AmpliconSize</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>InsertRange</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>InsertSize</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>offsetL</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>offsetR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>chr7</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100993760</v>
+      </c>
+      <c r="C2" t="n">
+        <v>100993760</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Plate1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TGCAAGTGGAACAACACCCT</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TTGTGGTTGGTGATCTGGGG</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>worked</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>(fwd=60.0|rev=59.8)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>chr7:100993725-100993903</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>178</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>chr7:100993745-100993883</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>138</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
